--- a/Calculations/sections.xlsx
+++ b/Calculations/sections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan\Documents\GitHub\MECH-400-Team-4\Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6C9402-D525-442B-999F-0D889CDC5FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE3691-1077-40E0-9502-795486237D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{5B1B5E71-55B6-4C5E-8432-3BE11148F9C8}"/>
+    <workbookView xWindow="-2685" yWindow="11160" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{5B1B5E71-55B6-4C5E-8432-3BE11148F9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="specs" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>External Volume</t>
   </si>
@@ -288,6 +288,33 @@
   </si>
   <si>
     <t>v_e</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>v_i</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>normalized to L8</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>Reaction forces: Dry Weight</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>reaction</t>
   </si>
 </sst>
 </file>
@@ -295,8 +322,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -329,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,13 +421,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,17 +441,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,10 +850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4709015F-09F4-444B-AED6-A1042EFE7CA0}">
-  <dimension ref="B3:P37"/>
+  <dimension ref="B3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,31 +1461,31 @@
         <f>-specs!$D$2*fastened!G5</f>
         <v>-191.28583811999999</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="2">
         <f>-specs!$D$2*fastened!H5</f>
         <v>-220.52085815999999</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <f>-specs!$D$2*fastened!I5</f>
         <v>-56.832830319999999</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="2">
         <f>-specs!$D$2*fastened!J5</f>
         <v>-159.37985979999999</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="2">
         <f>-specs!$D$2*fastened!K5</f>
         <v>-381.40917494000001</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="2">
         <f>-specs!$D$2*fastened!L5</f>
         <v>-263.96134010000003</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="2">
         <f>-specs!$D$2*fastened!M5</f>
         <v>-98.662088400000002</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="2">
         <f>-specs!$D$2*fastened!N5</f>
         <v>-359.66054559999998</v>
       </c>
@@ -1460,38 +1494,38 @@
       <c r="E28" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" t="s">
         <v>44</v>
       </c>
       <c r="G28" s="2">
         <f>-G13*specs!$D$2*specs!$D$10</f>
         <v>-413.52929540461815</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="2">
         <f>-H13*specs!$D$2*specs!$D$10</f>
         <v>-279.55966562749416</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <f>-I13*specs!$D$2*specs!$D$10</f>
         <v>-99.771158751716797</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="2">
         <f>-J13*specs!$D$2*specs!$D$10</f>
         <v>-99.771158751716797</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="2">
         <f>-K13*specs!$D$2*specs!$D$10</f>
         <v>-199.54231750343359</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="2">
         <f>-L13*specs!$D$2*specs!$D$10</f>
         <v>-99.771158751716797</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="2">
         <f>-M13*specs!$D$2*specs!$D$10</f>
         <v>-199.54231750343359</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="2">
         <f>-N13*specs!$D$2*specs!$D$10</f>
         <v>-363.70355333813359</v>
       </c>
@@ -1500,38 +1534,38 @@
       <c r="E29" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" t="s">
         <v>44</v>
       </c>
       <c r="G29" s="2">
         <f>-G13*specs!$D$2*specs!$D$4</f>
         <v>-707.13509514189707</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="2">
         <f>-H13*specs!$D$2*specs!$D$4</f>
         <v>-478.04702822301499</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <f>-I13*specs!$D$2*specs!$D$4</f>
         <v>-170.60868146543575</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <f>-J13*specs!$D$2*specs!$D$4</f>
         <v>-170.60868146543575</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="2">
         <f>-K13*specs!$D$2*specs!$D$4</f>
         <v>-341.2173629308715</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="2">
         <f>-L13*specs!$D$2*specs!$D$4</f>
         <v>-170.60868146543575</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="2">
         <f>-M13*specs!$D$2*specs!$D$4</f>
         <v>-341.2173629308715</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="2">
         <f>-N13*specs!$D$2*specs!$D$4</f>
         <v>-621.93307620820849</v>
       </c>
@@ -1540,7 +1574,7 @@
       <c r="E30" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>44</v>
       </c>
       <c r="G30" s="2">
@@ -1580,7 +1614,7 @@
       <c r="E31" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" t="s">
         <v>44</v>
       </c>
       <c r="G31" s="2">
@@ -1626,26 +1660,26 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="2">
         <f>483*4.44822*(1/8)</f>
         <v>268.5612825</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <v>0</v>
       </c>
     </row>
@@ -1682,37 +1716,37 @@
       <c r="D36" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="2">
         <f>G$34*G5</f>
         <v>19.507020000000001</v>
       </c>
-      <c r="H36" s="5">
-        <f t="shared" ref="H36:P37" si="1">H$34*H5</f>
+      <c r="H36" s="2">
+        <f t="shared" ref="H36:N36" si="1">H$34*H5</f>
         <v>179.90688</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
         <f t="shared" si="1"/>
         <v>16.253299999999999</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="2">
         <f t="shared" si="1"/>
         <v>155.58196000000001</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="2">
         <f t="shared" si="1"/>
         <v>53.836700000000008</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="2">
         <f t="shared" si="1"/>
         <v>40.245600000000003</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="2">
         <f t="shared" si="1"/>
         <v>73.355199999999996</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="4">
+      <c r="O36" s="2"/>
+      <c r="P36" s="1">
         <f>SUM(G36:N36)</f>
         <v>538.68666000000007</v>
       </c>
@@ -1721,39 +1755,76 @@
       <c r="D37" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="2">
         <f>G$34*G7</f>
         <v>2.0490571339999999E-2</v>
       </c>
-      <c r="H37" s="5">
-        <f t="shared" ref="H37:N37" si="2">H$34*H7</f>
+      <c r="H37" s="2">
+        <f t="shared" ref="H37:N38" si="2">H$34*H7</f>
         <v>0.13022089296</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
         <f t="shared" si="2"/>
         <v>7.56084067E-3</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="2">
         <f t="shared" si="2"/>
         <v>6.3670429520000002E-2</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="2">
         <f t="shared" si="2"/>
         <v>2.5697051659999998E-2</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="2">
         <f t="shared" si="2"/>
         <v>4.2274791479999997E-2</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="2">
         <f t="shared" si="2"/>
         <v>7.7053790240000003E-2</v>
       </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="4">
+      <c r="P37" s="1">
         <f>SUM(G37:N37)</f>
         <v>0.36696836786999998</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="2">
+        <f>G$34*G13</f>
+        <v>7.1753723239999997E-2</v>
+      </c>
+      <c r="H38" s="2">
+        <f>H$34*H13</f>
+        <v>0.38806337736000002</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
+        <f>J$34*J13</f>
+        <v>1.7311837859999998E-2</v>
+      </c>
+      <c r="K38" s="2">
+        <f>K$34*K13</f>
+        <v>0.13849470287999999</v>
+      </c>
+      <c r="L38" s="2">
+        <f>L$34*L13</f>
+        <v>3.4623675719999997E-2</v>
+      </c>
+      <c r="M38" s="2">
+        <f>M$34*M13</f>
+        <v>0.13849470287999999</v>
+      </c>
+      <c r="N38" s="2">
+        <f>N$34*N13</f>
+        <v>0.12621637401574803</v>
+      </c>
+      <c r="P38" s="1">
+        <f>SUM(G38:N38)</f>
+        <v>0.91495839395574807</v>
       </c>
     </row>
   </sheetData>
@@ -1763,1688 +1834,2341 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D3C6F1-38CF-46C1-A2F5-D38D7CD0A5C0}">
-  <dimension ref="A5:AJ26"/>
+  <dimension ref="A5:AM34"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="9" max="9" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6"/>
-    <col min="11" max="11" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="6"/>
-    <col min="13" max="13" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="6"/>
-    <col min="15" max="15" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="6"/>
-    <col min="17" max="17" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="6"/>
-    <col min="19" max="19" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="6"/>
-    <col min="23" max="23" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="6"/>
-    <col min="25" max="25" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="6"/>
-    <col min="27" max="27" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="6"/>
-    <col min="29" max="29" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="6"/>
-    <col min="31" max="31" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="6"/>
-    <col min="33" max="33" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="6"/>
-    <col min="35" max="35" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="3"/>
+    <col min="23" max="23" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="3"/>
+    <col min="25" max="25" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="3"/>
+    <col min="27" max="27" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="3"/>
+    <col min="29" max="29" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="3"/>
+    <col min="31" max="31" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="3"/>
+    <col min="33" max="33" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="3"/>
+    <col min="35" max="35" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="R5" s="7" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="R5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D6" s="7">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="D6" s="4">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>6</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <v>4</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="4">
         <v>3</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="4">
         <v>2</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="4">
         <v>1</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="15">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9" t="s">
+      <c r="T6" s="11">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="6">
         <v>1</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="6">
         <v>2</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="6">
         <v>3</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="6">
         <v>4</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AD6" s="6">
         <v>5</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AF6" s="6">
         <v>6</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AH6" s="9">
+      <c r="AH6" s="6">
         <v>7</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AI6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AJ6" s="9">
+      <c r="AJ6" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="AL6" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="str">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="str">
         <f>AJ7</f>
         <v>12" end flange X</v>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="8" t="str">
         <f>AH7</f>
         <v>Injector Assembly</v>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="8" t="str">
         <f>AF7</f>
         <v>12" Pipe X</v>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="J7" s="8" t="str">
         <f>AD7</f>
         <v>Injector Assembly</v>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="8" t="str">
         <f>AB7</f>
         <v>12" Pipe X</v>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="8" t="str">
         <f>Z7</f>
         <v>Injector Assembly</v>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="8" t="str">
         <f>X7</f>
         <v>12" mirror flange X</v>
       </c>
-      <c r="R7" s="11" t="str">
+      <c r="R7" s="8" t="str">
         <f>V7</f>
         <v>Injector Assembly</v>
       </c>
-      <c r="T7" s="11" t="str">
+      <c r="T7" s="8" t="str">
         <f>fastened!$G$3</f>
         <v>12" T XY</v>
       </c>
-      <c r="V7" s="11" t="str">
+      <c r="V7" s="8" t="str">
         <f>fastened!$H$3</f>
         <v>Injector Assembly</v>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="8" t="str">
         <f>fastened!$K$3</f>
         <v>12" mirror flange X</v>
       </c>
-      <c r="Z7" s="11" t="str">
+      <c r="Z7" s="8" t="str">
         <f>V7</f>
         <v>Injector Assembly</v>
       </c>
-      <c r="AB7" s="11" t="str">
+      <c r="AB7" s="8" t="str">
         <f>fastened!$M$3</f>
         <v>12" Pipe X</v>
       </c>
-      <c r="AD7" s="11" t="str">
+      <c r="AD7" s="8" t="str">
         <f>Z7</f>
         <v>Injector Assembly</v>
       </c>
-      <c r="AF7" s="11" t="str">
+      <c r="AF7" s="8" t="str">
         <f>AB7</f>
         <v>12" Pipe X</v>
       </c>
-      <c r="AH7" s="11" t="str">
+      <c r="AH7" s="8" t="str">
         <f>AD7</f>
         <v>Injector Assembly</v>
       </c>
-      <c r="AJ7" s="11" t="str">
+      <c r="AJ7" s="8" t="str">
         <f>fastened!$L$3</f>
         <v>12" end flange X</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <f>-AJ8</f>
         <v>-4.622164999999999</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <f>-AI8</f>
         <v>-4.3478449999999986</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <f>-AH8</f>
         <v>-4.055744999999999</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <f>-AG8</f>
         <v>-3.7636449999999995</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <f>-AF8</f>
         <v>-3.4893249999999996</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <f>-AE8</f>
         <v>-3.2150049999999997</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="9">
         <f>-AD8</f>
         <v>-2.9229049999999996</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="9">
         <f>-AC8</f>
         <v>-2.6308049999999996</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="9">
         <f>-AB8</f>
         <v>-2.3564849999999997</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="9">
         <f>-AA8</f>
         <v>-2.0821649999999998</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="9">
         <f>-Z8</f>
         <v>-1.7900649999999998</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="9">
         <f>-Y8</f>
         <v>-1.4979649999999998</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="9">
         <f>-X8</f>
         <v>-1.2236449999999999</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="9">
         <f>-W8</f>
         <v>-0.94932499999999997</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="9">
         <f>-V8</f>
         <v>-0.65722499999999995</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="9">
         <f>-U8</f>
         <v>-0.36512500000000003</v>
       </c>
-      <c r="T8" s="12">
-        <v>0</v>
-      </c>
-      <c r="U8" s="12">
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
         <f>T8+fastened!$G$23</f>
         <v>0.36512500000000003</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="9">
         <f>U8+fastened!$H$19</f>
         <v>0.65722499999999995</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="9">
         <f>V8+fastened!$H$23</f>
         <v>0.94932499999999997</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="9">
         <f>W8+fastened!$K$19</f>
         <v>1.2236449999999999</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="9">
         <f>X8+fastened!$K$23</f>
         <v>1.4979649999999998</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="9">
         <f>Y8+fastened!$H$19</f>
         <v>1.7900649999999998</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="9">
         <f>Z8+fastened!$H$23</f>
         <v>2.0821649999999998</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8" s="9">
         <f>AA8+fastened!$M$19</f>
         <v>2.3564849999999997</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8" s="9">
         <f>AB8+fastened!$M$23</f>
         <v>2.6308049999999996</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AD8" s="9">
         <f>AC8+fastened!$H$19</f>
         <v>2.9229049999999996</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="9">
         <f>AD8+fastened!$H$23</f>
         <v>3.2150049999999997</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="9">
         <f>AE8+fastened!$M$19</f>
         <v>3.4893249999999996</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AG8" s="9">
         <f>AF8+fastened!$M$23</f>
         <v>3.7636449999999995</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="9">
         <f>AG8+fastened!$H$19</f>
         <v>4.055744999999999</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="9">
         <f>AH8+fastened!$H$23</f>
         <v>4.3478449999999986</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AJ8" s="9">
         <f>AI8+fastened!L19</f>
         <v>4.622164999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <f t="shared" ref="D9:D10" si="0">-AJ9</f>
         <v>-4.5855349999999993</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
         <f t="shared" ref="F9:F10" si="1">-AH9</f>
         <v>-4.055744999999999</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <f t="shared" ref="H9:H10" si="2">-AF9</f>
         <v>-3.4893249999999996</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9">
         <f t="shared" ref="J9:J10" si="3">-AD9</f>
         <v>-2.9229049999999996</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
         <f t="shared" ref="L9:L10" si="4">-AB9</f>
         <v>-2.3564849999999997</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9">
         <f t="shared" ref="N9:N10" si="5">-Z9</f>
         <v>-1.7900649999999998</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9">
         <f t="shared" ref="P9:P10" si="6">-X9</f>
         <v>-1.2236449999999999</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9">
         <f t="shared" ref="R9:R10" si="7">-V9</f>
         <v>-0.65722499999999995</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12">
+      <c r="S9" s="9"/>
+      <c r="T9" s="9">
         <f>T8+fastened!$G$9</f>
         <v>0</v>
       </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12">
+      <c r="U9" s="9"/>
+      <c r="V9" s="9">
         <f>V8+fastened!$H$9</f>
         <v>0.65722499999999995</v>
       </c>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12">
+      <c r="W9" s="9"/>
+      <c r="X9" s="9">
         <f>X8+fastened!$K$9</f>
         <v>1.2236449999999999</v>
       </c>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12">
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9">
         <f>Z8+fastened!$H$9</f>
         <v>1.7900649999999998</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12">
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9">
         <f>AB8+fastened!$M$9</f>
         <v>2.3564849999999997</v>
       </c>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12">
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9">
         <f>AD8+fastened!$H$9</f>
         <v>2.9229049999999996</v>
       </c>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12">
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9">
         <f>AF8+fastened!$M$9</f>
         <v>3.4893249999999996</v>
       </c>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12">
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9">
         <f>AH8+fastened!$H$9</f>
         <v>4.055744999999999</v>
       </c>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12">
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9">
         <f>AJ8+fastened!$L$9</f>
         <v>4.5855349999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>-4.4850049999999992</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>-4.055744999999999</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
         <f t="shared" si="2"/>
         <v>-3.4893249999999996</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9">
         <f t="shared" si="3"/>
         <v>-2.9229049999999996</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
         <f t="shared" si="4"/>
         <v>-2.3564849999999997</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9">
         <f t="shared" si="5"/>
         <v>-1.7900649999999998</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9">
         <f t="shared" si="6"/>
         <v>-1.2236449999999999</v>
       </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12">
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9">
         <f t="shared" si="7"/>
         <v>-0.65722499999999995</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12">
+      <c r="S10" s="9"/>
+      <c r="T10" s="9">
         <f>fastened!$G$15</f>
         <v>0</v>
       </c>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12">
+      <c r="U10" s="9"/>
+      <c r="V10" s="9">
         <f>V8+fastened!$H$15</f>
         <v>0.65722499999999995</v>
       </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12">
+      <c r="W10" s="9"/>
+      <c r="X10" s="9">
         <f>X9+fastened!$K$15</f>
         <v>1.2236449999999999</v>
       </c>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12">
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9">
         <f>Z8+fastened!$H$15</f>
         <v>1.7900649999999998</v>
       </c>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12">
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9">
         <f>AB8+fastened!$M$15</f>
         <v>2.3564849999999997</v>
       </c>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12">
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9">
         <f>AD8+fastened!$H$15</f>
         <v>2.9229049999999996</v>
       </c>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12">
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9">
         <f>AF8+fastened!$M$15</f>
         <v>3.4893249999999996</v>
       </c>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12">
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9">
         <f>AH8+fastened!$H$15</f>
         <v>4.055744999999999</v>
       </c>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12">
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9">
         <f>AJ8+fastened!$L$15</f>
         <v>4.4850049999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
+      <c r="D12" s="9">
+        <f>fastened!$L$5</f>
+        <v>26.918350000000004</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <f>J12</f>
+        <v>22.48836</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>L12</f>
+        <v>10.061400000000001</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
+        <f>N12</f>
+        <v>22.48836</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9">
+        <f>AB12</f>
+        <v>10.061400000000001</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9">
+        <f>Z12</f>
+        <v>22.48836</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9">
+        <f>X12</f>
+        <v>38.895490000000002</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9">
+        <f>V12</f>
+        <v>22.48836</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9">
+        <f>fastened!$G$5+2*fastened!$K$5+2*fastened!$N$5+fastened!$J$5</f>
+        <v>186.90649999999999</v>
+      </c>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9">
+        <f>Z12</f>
+        <v>22.48836</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9">
+        <f>fastened!$K$5</f>
+        <v>38.895490000000002</v>
+      </c>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9">
+        <f>AD12</f>
+        <v>22.48836</v>
+      </c>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9">
+        <f>AF12</f>
+        <v>10.061400000000001</v>
+      </c>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9">
+        <f>AH12</f>
+        <v>22.48836</v>
+      </c>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9">
+        <f>fastened!$M$5</f>
+        <v>10.061400000000001</v>
+      </c>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9">
+        <f>fastened!$H$5</f>
+        <v>22.48836</v>
+      </c>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9">
+        <f>fastened!$L$5</f>
+        <v>26.918350000000004</v>
+      </c>
+      <c r="AL12" s="13">
+        <f>SUM(D12:AJ12)</f>
+        <v>538.68665999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
+      <c r="D13" s="9">
+        <f>fastened!$L$7</f>
+        <v>1.2848525829999999E-2</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <f t="shared" ref="F13:F14" si="8">J13</f>
+        <v>1.627761162E-2</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <f t="shared" ref="H13:H14" si="9">L13</f>
+        <v>1.0568697869999999E-2</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9">
+        <f t="shared" ref="J13:J14" si="10">N13</f>
+        <v>1.627761162E-2</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9">
+        <f t="shared" ref="L13:L14" si="11">AB13</f>
+        <v>1.0568697869999999E-2</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9">
+        <f t="shared" ref="N13:N14" si="12">Z13</f>
+        <v>1.627761162E-2</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9">
+        <f t="shared" ref="P13:P14" si="13">X13</f>
+        <v>1.591760738E-2</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9">
+        <f t="shared" ref="R13:R14" si="14">V13</f>
+        <v>1.627761162E-2</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9">
+        <f>fastened!$G$7+2*fastened!$K$7+2*fastened!$N$7+fastened!$J$7</f>
+        <v>0.13694041701000001</v>
+      </c>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9">
+        <f t="shared" ref="V13:V14" si="15">Z13</f>
+        <v>1.627761162E-2</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9">
+        <f>fastened!$K$7</f>
+        <v>1.591760738E-2</v>
+      </c>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9">
+        <f t="shared" ref="Z13:Z14" si="16">AD13</f>
+        <v>1.627761162E-2</v>
+      </c>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9">
+        <f t="shared" ref="AB13:AB14" si="17">AF13</f>
+        <v>1.0568697869999999E-2</v>
+      </c>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9">
+        <f t="shared" ref="AD13:AD14" si="18">AH13</f>
+        <v>1.627761162E-2</v>
+      </c>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9">
+        <f>fastened!$M$7</f>
+        <v>1.0568697869999999E-2</v>
+      </c>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9">
+        <f>fastened!$H$7</f>
+        <v>1.627761162E-2</v>
+      </c>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9">
+        <f>fastened!$L$7</f>
+        <v>1.2848525829999999E-2</v>
+      </c>
+      <c r="AL13" s="13">
+        <f>SUM(D13:AJ13)</f>
+        <v>0.36696836787000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C15" s="8"/>
-      <c r="V15" s="13"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="D14" s="9">
+        <f>fastened!$L$13</f>
+        <v>1.7311837859999998E-2</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <f t="shared" si="8"/>
+        <v>4.8507922170000002E-2</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <f t="shared" si="9"/>
+        <v>3.4623675719999997E-2</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
+        <f t="shared" si="10"/>
+        <v>4.8507922170000002E-2</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9">
+        <f t="shared" si="11"/>
+        <v>3.4623675719999997E-2</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9">
+        <f t="shared" si="12"/>
+        <v>4.8507922170000002E-2</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9">
+        <f t="shared" si="13"/>
+        <v>3.4623675719999997E-2</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9">
+        <f t="shared" si="14"/>
+        <v>4.8507922170000002E-2</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9">
+        <f>fastened!$G$13+2*fastened!$K$13+2*fastened!$N$13+fastened!$J$13</f>
+        <v>0.28452928655574805</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9">
+        <f t="shared" si="15"/>
+        <v>4.8507922170000002E-2</v>
+      </c>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9">
+        <f>fastened!$K$13</f>
+        <v>3.4623675719999997E-2</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9">
+        <f t="shared" si="16"/>
+        <v>4.8507922170000002E-2</v>
+      </c>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9">
+        <f t="shared" si="17"/>
+        <v>3.4623675719999997E-2</v>
+      </c>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9">
+        <f t="shared" si="18"/>
+        <v>4.8507922170000002E-2</v>
+      </c>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9">
+        <f>fastened!$M$13</f>
+        <v>3.4623675719999997E-2</v>
+      </c>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9">
+        <f>fastened!$H$13</f>
+        <v>4.8507922170000002E-2</v>
+      </c>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9">
+        <f>fastened!$L$13</f>
+        <v>1.7311837859999998E-2</v>
+      </c>
+      <c r="AL14" s="13">
+        <f t="shared" ref="AL13:AL25" si="19">SUM(D14:AJ14)</f>
+        <v>0.91495839395574807</v>
+      </c>
+      <c r="AM14" s="13"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C15" s="5"/>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="12">
         <f>fastened!$L$27</f>
         <v>-263.96134010000003</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
         <f>fastened!$H$27</f>
         <v>-220.52085815999999</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
         <f>fastened!$M$27</f>
         <v>-98.662088400000002</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12">
         <f>F16</f>
         <v>-220.52085815999999</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16">
+      <c r="K16" s="12"/>
+      <c r="L16" s="12">
         <f>fastened!$M$27</f>
         <v>-98.662088400000002</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12">
         <f>J16</f>
         <v>-220.52085815999999</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16">
+      <c r="O16" s="12"/>
+      <c r="P16" s="12">
         <f>fastened!$K$27</f>
         <v>-381.40917494000001</v>
       </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12">
         <f>fastened!$H$27</f>
         <v>-220.52085815999999</v>
       </c>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16">
+      <c r="S16" s="12"/>
+      <c r="T16" s="12">
         <f>fastened!$G$27+2*fastened!$K$27+2*fastened!$N$27+fastened!$J$27</f>
         <v>-1832.8051390000001</v>
       </c>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16">
+      <c r="U16" s="12"/>
+      <c r="V16" s="12">
         <f>R16</f>
         <v>-220.52085815999999</v>
       </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16">
+      <c r="W16" s="12"/>
+      <c r="X16" s="12">
         <f>P16</f>
         <v>-381.40917494000001</v>
       </c>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16">
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12">
         <f>V16</f>
         <v>-220.52085815999999</v>
       </c>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16">
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12">
         <f>L16</f>
         <v>-98.662088400000002</v>
       </c>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16">
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12">
         <f>V16</f>
         <v>-220.52085815999999</v>
       </c>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16">
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12">
         <f>AB16</f>
         <v>-98.662088400000002</v>
       </c>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16">
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12">
         <f>V16</f>
         <v>-220.52085815999999</v>
       </c>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16">
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12">
         <f>D16</f>
         <v>-263.96134010000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="AL16" s="15">
+        <f t="shared" si="19"/>
+        <v>-5282.3613879600007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="12">
         <f>fastened!$G$30</f>
         <v>201.93519527284016</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
         <f>fastened!$H$30</f>
         <v>160.41635084344855</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
         <f>fastened!$M$30</f>
         <v>104.15483456978608</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16">
-        <f t="shared" ref="J17:J22" si="8">F17</f>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12">
+        <f t="shared" ref="J17" si="20">F17</f>
         <v>160.41635084344855</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16">
+      <c r="K17" s="12"/>
+      <c r="L17" s="12">
         <f>fastened!$M$30</f>
         <v>104.15483456978608</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16">
-        <f t="shared" ref="N17:P21" si="9">J17</f>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12">
+        <f t="shared" ref="N17" si="21">J17</f>
         <v>160.41635084344855</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16">
+      <c r="O17" s="12"/>
+      <c r="P17" s="12">
         <f>fastened!$K$30</f>
         <v>156.86849825812138</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12">
         <f>fastened!$H$30</f>
         <v>160.41635084344855</v>
       </c>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16">
+      <c r="S17" s="12"/>
+      <c r="T17" s="12">
         <f>fastened!$G$30+2*fastened!$K$30+2*fastened!$N$30+fastened!$J$30</f>
         <v>1349.5519178460602</v>
       </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16">
-        <f t="shared" ref="V17:V20" si="10">R17</f>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12">
+        <f t="shared" ref="V17:V20" si="22">R17</f>
         <v>160.41635084344855</v>
       </c>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16">
-        <f t="shared" ref="X17:X20" si="11">P17</f>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12">
+        <f t="shared" ref="X17:X20" si="23">P17</f>
         <v>156.86849825812138</v>
       </c>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16">
-        <f t="shared" ref="Z17:Z20" si="12">V17</f>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12">
+        <f t="shared" ref="Z17:Z20" si="24">V17</f>
         <v>160.41635084344855</v>
       </c>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16">
-        <f t="shared" ref="AB17:AB20" si="13">L17</f>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12">
+        <f t="shared" ref="AB17:AB20" si="25">L17</f>
         <v>104.15483456978608</v>
       </c>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16">
-        <f t="shared" ref="AD17:AD20" si="14">V17</f>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12">
+        <f t="shared" ref="AD17:AD20" si="26">V17</f>
         <v>160.41635084344855</v>
       </c>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16">
-        <f t="shared" ref="AF17:AF20" si="15">AB17</f>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12">
+        <f t="shared" ref="AF17:AF20" si="27">AB17</f>
         <v>104.15483456978608</v>
       </c>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16">
-        <f t="shared" ref="AH17:AH20" si="16">V17</f>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12">
+        <f t="shared" ref="AH17:AH20" si="28">V17</f>
         <v>160.41635084344855</v>
       </c>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16">
-        <f t="shared" ref="AJ17:AJ21" si="17">D17</f>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12">
+        <f t="shared" ref="AJ17" si="29">D17</f>
         <v>201.93519527284016</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="AL17" s="15">
+        <f t="shared" si="19"/>
+        <v>3767.1094499347159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="12">
         <f>fastened!$G$28</f>
         <v>-413.52929540461815</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
         <f>fastened!$H$28</f>
         <v>-279.55966562749416</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12">
         <f>fastened!$M$28</f>
         <v>-199.54231750343359</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12">
         <f>F18</f>
         <v>-279.55966562749416</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16">
+      <c r="K18" s="12"/>
+      <c r="L18" s="12">
         <f>fastened!$M$28</f>
         <v>-199.54231750343359</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16">
+      <c r="M18" s="12"/>
+      <c r="N18" s="12">
         <f>J18</f>
         <v>-279.55966562749416</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12">
         <f>fastened!$K$28</f>
         <v>-199.54231750343359</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12">
         <f>fastened!$H$28</f>
         <v>-279.55966562749416</v>
       </c>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16">
+      <c r="S18" s="12"/>
+      <c r="T18" s="12">
         <f>fastened!$G$28+2*fastened!$K$28+2*fastened!$N$28+fastened!$J$28</f>
         <v>-1639.7921958394693</v>
       </c>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16">
-        <f t="shared" si="10"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12">
+        <f t="shared" si="22"/>
         <v>-279.55966562749416</v>
       </c>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16">
-        <f t="shared" si="11"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12">
+        <f t="shared" si="23"/>
         <v>-199.54231750343359</v>
       </c>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16">
-        <f t="shared" si="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12">
+        <f t="shared" si="24"/>
         <v>-279.55966562749416</v>
       </c>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16">
-        <f t="shared" si="13"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12">
+        <f t="shared" si="25"/>
         <v>-199.54231750343359</v>
       </c>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16">
-        <f t="shared" si="14"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12">
+        <f t="shared" si="26"/>
         <v>-279.55966562749416</v>
       </c>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16">
-        <f t="shared" si="15"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12">
+        <f t="shared" si="27"/>
         <v>-199.54231750343359</v>
       </c>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16">
-        <f t="shared" si="16"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12">
+        <f t="shared" si="28"/>
         <v>-279.55966562749416</v>
       </c>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16">
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12">
         <f>D18</f>
         <v>-413.52929540461815</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+      <c r="AL18" s="15">
+        <f t="shared" si="19"/>
+        <v>-5900.5820166892599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="12">
         <f>fastened!$G$29</f>
         <v>-707.13509514189707</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
         <f>fastened!$H$29</f>
         <v>-478.04702822301499</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
         <f>fastened!$M$29</f>
         <v>-341.2173629308715</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12">
         <f>F19</f>
         <v>-478.04702822301499</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12">
         <f>fastened!$M$29</f>
         <v>-341.2173629308715</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16">
+      <c r="M19" s="12"/>
+      <c r="N19" s="12">
         <f>J19</f>
         <v>-478.04702822301499</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12">
         <f>fastened!$K$29</f>
         <v>-341.2173629308715</v>
       </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12">
         <f>fastened!$H$29</f>
         <v>-478.04702822301499</v>
       </c>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16">
+      <c r="S19" s="12"/>
+      <c r="T19" s="12">
         <f>fastened!$G$29+2*fastened!$K$29+2*fastened!$N$29+fastened!$J$29</f>
         <v>-2804.0446548854929</v>
       </c>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16">
-        <f t="shared" si="10"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12">
+        <f t="shared" si="22"/>
         <v>-478.04702822301499</v>
       </c>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16">
-        <f t="shared" si="11"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12">
+        <f t="shared" si="23"/>
         <v>-341.2173629308715</v>
       </c>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16">
-        <f t="shared" si="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12">
+        <f t="shared" si="24"/>
         <v>-478.04702822301499</v>
       </c>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16">
-        <f t="shared" si="13"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12">
+        <f t="shared" si="25"/>
         <v>-341.2173629308715</v>
       </c>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16">
-        <f t="shared" si="14"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12">
+        <f t="shared" si="26"/>
         <v>-478.04702822301499</v>
       </c>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16">
-        <f t="shared" si="15"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12">
+        <f t="shared" si="27"/>
         <v>-341.2173629308715</v>
       </c>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16">
-        <f t="shared" si="16"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12">
+        <f t="shared" si="28"/>
         <v>-478.04702822301499</v>
       </c>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16">
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12">
         <f>D19</f>
         <v>-707.13509514189707</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+      <c r="AL19" s="15">
+        <f t="shared" si="19"/>
+        <v>-10089.995248538635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="12">
         <f>fastened!$G$31</f>
         <v>707.13509514189707</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12">
         <f>fastened!$H$31</f>
         <v>478.04702822301499</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
         <f>fastened!$M$31</f>
         <v>341.2173629308715</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12">
         <f>F20</f>
         <v>478.04702822301499</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16">
+      <c r="K20" s="12"/>
+      <c r="L20" s="12">
         <f>fastened!$M$31</f>
         <v>341.2173629308715</v>
       </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16">
+      <c r="M20" s="12"/>
+      <c r="N20" s="12">
         <f>J20</f>
         <v>478.04702822301499</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16">
+      <c r="O20" s="12"/>
+      <c r="P20" s="12">
         <f>fastened!$K$31</f>
         <v>341.2173629308715</v>
       </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12">
         <f>fastened!$H$31</f>
         <v>478.04702822301499</v>
       </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16">
+      <c r="S20" s="12"/>
+      <c r="T20" s="12">
         <f>fastened!$G$31+2*fastened!$K$31+2*fastened!$N$31+fastened!$J$31</f>
         <v>2804.0446548854929</v>
       </c>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16">
-        <f t="shared" si="10"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12">
+        <f t="shared" si="22"/>
         <v>478.04702822301499</v>
       </c>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16">
-        <f t="shared" si="11"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12">
+        <f t="shared" si="23"/>
         <v>341.2173629308715</v>
       </c>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16">
-        <f t="shared" si="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12">
+        <f t="shared" si="24"/>
         <v>478.04702822301499</v>
       </c>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16">
-        <f t="shared" si="13"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12">
+        <f t="shared" si="25"/>
         <v>341.2173629308715</v>
       </c>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16">
-        <f t="shared" si="14"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12">
+        <f t="shared" si="26"/>
         <v>478.04702822301499</v>
       </c>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16">
-        <f t="shared" si="15"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12">
+        <f t="shared" si="27"/>
         <v>341.2173629308715</v>
       </c>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16">
-        <f t="shared" si="16"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12">
+        <f t="shared" si="28"/>
         <v>478.04702822301499</v>
       </c>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16">
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12">
         <f>D20</f>
         <v>707.13509514189707</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="AL20" s="15">
+        <f t="shared" si="19"/>
+        <v>10089.995248538635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="12">
         <f>D16</f>
         <v>-263.96134010000003</v>
       </c>
-      <c r="E22" s="16">
-        <f t="shared" ref="E22:AJ22" si="18">E16</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <f t="shared" si="18"/>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:AJ22" si="30">E16</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="30"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="G22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" si="18"/>
+      <c r="G22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="30"/>
         <v>-98.662088400000002</v>
       </c>
-      <c r="I22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="18"/>
+      <c r="I22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="30"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="K22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="18"/>
+      <c r="K22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="30"/>
         <v>-98.662088400000002</v>
       </c>
-      <c r="M22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="16">
-        <f t="shared" si="18"/>
+      <c r="M22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="30"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="O22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
-        <f t="shared" si="18"/>
+      <c r="O22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="30"/>
         <v>-381.40917494000001</v>
       </c>
-      <c r="Q22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="16">
-        <f t="shared" si="18"/>
+      <c r="Q22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="30"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="S22" s="8"/>
-      <c r="T22" s="16">
-        <f t="shared" si="18"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="12">
+        <f t="shared" si="30"/>
         <v>-1832.8051390000001</v>
       </c>
-      <c r="U22" s="8"/>
-      <c r="V22" s="16">
-        <f t="shared" si="18"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="12">
+        <f t="shared" si="30"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="W22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="16">
-        <f t="shared" si="18"/>
+      <c r="W22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="12">
+        <f t="shared" si="30"/>
         <v>-381.40917494000001</v>
       </c>
-      <c r="Y22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="16">
-        <f t="shared" si="18"/>
+      <c r="Y22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="12">
+        <f t="shared" si="30"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="AA22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="16">
-        <f t="shared" si="18"/>
+      <c r="AA22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="12">
+        <f t="shared" si="30"/>
         <v>-98.662088400000002</v>
       </c>
-      <c r="AC22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="16">
-        <f t="shared" si="18"/>
+      <c r="AC22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="12">
+        <f t="shared" si="30"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="AE22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="16">
-        <f t="shared" si="18"/>
+      <c r="AE22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="12">
+        <f t="shared" si="30"/>
         <v>-98.662088400000002</v>
       </c>
-      <c r="AG22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="16">
-        <f t="shared" si="18"/>
+      <c r="AG22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="12">
+        <f t="shared" si="30"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="AI22" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="16">
-        <f t="shared" si="18"/>
+      <c r="AI22" s="12">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="12">
+        <f t="shared" si="30"/>
         <v>-263.96134010000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+      <c r="AL22" s="15">
+        <f t="shared" si="19"/>
+        <v>-5282.3613879600007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="12">
         <f>D16+D19+D17+D20</f>
         <v>-62.026144827159897</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="16">
+      <c r="E23" s="5"/>
+      <c r="F23" s="12">
         <f>F16+F19+F17+F20</f>
         <v>-60.104507316551462</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="16">
+      <c r="G23" s="5"/>
+      <c r="H23" s="12">
         <f>H16+H19+H17+H20</f>
         <v>5.4927461697860736</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="16">
+      <c r="I23" s="5"/>
+      <c r="J23" s="12">
         <f>J16+J19+J17+J20</f>
         <v>-60.104507316551462</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="16">
+      <c r="K23" s="5"/>
+      <c r="L23" s="12">
         <f>L16+L19+L17+L20</f>
         <v>5.4927461697860736</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="16">
+      <c r="M23" s="5"/>
+      <c r="N23" s="12">
         <f>N16+N19+N17+N20</f>
         <v>-60.104507316551462</v>
       </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="16">
+      <c r="O23" s="5"/>
+      <c r="P23" s="12">
         <f>P16+P19+P17+P20</f>
         <v>-224.54067668187867</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="16">
+      <c r="Q23" s="5"/>
+      <c r="R23" s="12">
         <f>R16+R19+R17+R20</f>
         <v>-60.104507316551462</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="T23" s="16">
+      <c r="S23" s="5"/>
+      <c r="T23" s="12">
         <f>T16+T19+T17+T20</f>
         <v>-483.25322115393965</v>
       </c>
-      <c r="U23" s="8"/>
-      <c r="V23" s="16">
+      <c r="U23" s="5"/>
+      <c r="V23" s="12">
         <f>V16+V19+V17+V20</f>
         <v>-60.104507316551462</v>
       </c>
-      <c r="W23" s="8"/>
-      <c r="X23" s="16">
+      <c r="W23" s="5"/>
+      <c r="X23" s="12">
         <f>X16+X19+X17+X20</f>
         <v>-224.54067668187867</v>
       </c>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="16">
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="12">
         <f>Z16+Z19+Z17+Z20</f>
         <v>-60.104507316551462</v>
       </c>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="16">
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="12">
         <f>AB16+AB19+AB17+AB20</f>
         <v>5.4927461697860736</v>
       </c>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="16">
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="12">
         <f>AD16+AD19+AD17+AD20</f>
         <v>-60.104507316551462</v>
       </c>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="16">
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="12">
         <f>AF16+AF19+AF17+AF20</f>
         <v>5.4927461697860736</v>
       </c>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="16">
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="12">
         <f>AH16+AH19+AH17+AH20</f>
         <v>-60.104507316551462</v>
       </c>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="16">
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="12">
         <f>AJ16+AJ19+AJ17+AJ20</f>
         <v>-62.026144827159897</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
+      <c r="AL23" s="15">
+        <f t="shared" si="19"/>
+        <v>-1515.2519380252843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="12">
         <f>D16+D18+D17+D20</f>
         <v>231.57965491011896</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="16">
+      <c r="E24" s="5"/>
+      <c r="F24" s="12">
         <f>F16+F18+F17+F20</f>
         <v>138.38285527896937</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="16">
+      <c r="G24" s="5"/>
+      <c r="H24" s="12">
         <f>H16+H18+H17+H20</f>
         <v>147.16779159722398</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="16">
+      <c r="I24" s="5"/>
+      <c r="J24" s="12">
         <f>J16+J18+J17+J20</f>
         <v>138.38285527896937</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="16">
+      <c r="K24" s="5"/>
+      <c r="L24" s="12">
         <f>L16+L18+L17+L20</f>
         <v>147.16779159722398</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="16">
+      <c r="M24" s="5"/>
+      <c r="N24" s="12">
         <f>N16+N18+N17+N20</f>
         <v>138.38285527896937</v>
       </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="16">
+      <c r="O24" s="5"/>
+      <c r="P24" s="12">
         <f>P16+P18+P17+P20</f>
         <v>-82.865631254440757</v>
       </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="16">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="12">
         <f>R16+R18+R17+R20</f>
         <v>138.38285527896937</v>
       </c>
-      <c r="S24" s="8"/>
-      <c r="T24" s="16">
+      <c r="S24" s="5"/>
+      <c r="T24" s="12">
         <f>T16+T18+T17+T20</f>
         <v>680.99923789208378</v>
       </c>
-      <c r="U24" s="8"/>
-      <c r="V24" s="16">
+      <c r="U24" s="5"/>
+      <c r="V24" s="12">
         <f>V16+V18+V17+V20</f>
         <v>138.38285527896937</v>
       </c>
-      <c r="W24" s="8"/>
-      <c r="X24" s="16">
+      <c r="W24" s="5"/>
+      <c r="X24" s="12">
         <f>X16+X18+X17+X20</f>
         <v>-82.865631254440757</v>
       </c>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="16">
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="12">
         <f>Z16+Z18+Z17+Z20</f>
         <v>138.38285527896937</v>
       </c>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="16">
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="12">
         <f>AB16+AB18+AB17+AB20</f>
         <v>147.16779159722398</v>
       </c>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="16">
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="12">
         <f>AD16+AD18+AD17+AD20</f>
         <v>138.38285527896937</v>
       </c>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="16">
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="12">
         <f>AF16+AF18+AF17+AF20</f>
         <v>147.16779159722398</v>
       </c>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="16">
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="12">
         <f>AH16+AH18+AH17+AH20</f>
         <v>138.38285527896937</v>
       </c>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="16">
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="12">
         <f>AJ16+AJ18+AJ17+AJ20</f>
         <v>231.57965491011896</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
+      <c r="AL24" s="15">
+        <f t="shared" si="19"/>
+        <v>2674.1612938240905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="12">
         <f>D16</f>
         <v>-263.96134010000003</v>
       </c>
-      <c r="E25" s="16">
-        <f t="shared" ref="E25:AJ25" si="19">E16</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
+      <c r="E25" s="12">
+        <f t="shared" ref="E25:AJ25" si="31">E16</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="31"/>
+        <v>-220.52085815999999</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="31"/>
+        <v>-98.662088400000002</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="31"/>
+        <v>-220.52085815999999</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="31"/>
+        <v>-98.662088400000002</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="31"/>
+        <v>-220.52085815999999</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="31"/>
+        <v>-381.40917494000001</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" si="31"/>
+        <v>-220.52085815999999</v>
+      </c>
+      <c r="S25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="12">
+        <f t="shared" si="31"/>
+        <v>-1832.8051390000001</v>
+      </c>
+      <c r="U25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <f t="shared" si="31"/>
+        <v>-220.52085815999999</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="12">
+        <f t="shared" si="31"/>
+        <v>-381.40917494000001</v>
+      </c>
+      <c r="Y25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="12">
+        <f t="shared" si="31"/>
+        <v>-220.52085815999999</v>
+      </c>
+      <c r="AA25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="12">
+        <f t="shared" si="31"/>
+        <v>-98.662088400000002</v>
+      </c>
+      <c r="AC25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="12">
+        <f t="shared" si="31"/>
+        <v>-220.52085815999999</v>
+      </c>
+      <c r="AE25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="12">
+        <f t="shared" si="31"/>
+        <v>-98.662088400000002</v>
+      </c>
+      <c r="AG25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="12">
+        <f t="shared" si="31"/>
+        <v>-220.52085815999999</v>
+      </c>
+      <c r="AI25" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="12">
+        <f t="shared" si="31"/>
+        <v>-263.96134010000003</v>
+      </c>
+      <c r="AL25" s="15">
         <f t="shared" si="19"/>
+        <v>-5282.3613879600007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="13">
+        <f>D8-$D$8</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" ref="E29:AJ29" si="32">E8-$D$8</f>
+        <v>0.27432000000000034</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="32"/>
+        <v>0.56641999999999992</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="32"/>
+        <v>0.85851999999999951</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="32"/>
+        <v>1.1328399999999994</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="32"/>
+        <v>1.4071599999999993</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="32"/>
+        <v>1.6992599999999993</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="shared" si="32"/>
+        <v>1.9913599999999994</v>
+      </c>
+      <c r="L29" s="13">
+        <f t="shared" si="32"/>
+        <v>2.2656799999999993</v>
+      </c>
+      <c r="M29" s="13">
+        <f t="shared" si="32"/>
+        <v>2.5399999999999991</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" si="32"/>
+        <v>2.8320999999999992</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" si="32"/>
+        <v>3.1241999999999992</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="32"/>
+        <v>3.3985199999999991</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="32"/>
+        <v>3.672839999999999</v>
+      </c>
+      <c r="R29" s="13">
+        <f t="shared" si="32"/>
+        <v>3.964939999999999</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" si="32"/>
+        <v>4.257039999999999</v>
+      </c>
+      <c r="T29" s="13">
+        <f t="shared" si="32"/>
+        <v>4.622164999999999</v>
+      </c>
+      <c r="U29" s="13">
+        <f t="shared" si="32"/>
+        <v>4.9872899999999989</v>
+      </c>
+      <c r="V29" s="13">
+        <f t="shared" si="32"/>
+        <v>5.2793899999999994</v>
+      </c>
+      <c r="W29" s="13">
+        <f t="shared" si="32"/>
+        <v>5.5714899999999989</v>
+      </c>
+      <c r="X29" s="13">
+        <f t="shared" si="32"/>
+        <v>5.8458099999999984</v>
+      </c>
+      <c r="Y29" s="13">
+        <f t="shared" si="32"/>
+        <v>6.1201299999999987</v>
+      </c>
+      <c r="Z29" s="13">
+        <f t="shared" si="32"/>
+        <v>6.4122299999999992</v>
+      </c>
+      <c r="AA29" s="13">
+        <f t="shared" si="32"/>
+        <v>6.7043299999999988</v>
+      </c>
+      <c r="AB29" s="13">
+        <f t="shared" si="32"/>
+        <v>6.9786499999999982</v>
+      </c>
+      <c r="AC29" s="13">
+        <f t="shared" si="32"/>
+        <v>7.2529699999999986</v>
+      </c>
+      <c r="AD29" s="13">
+        <f t="shared" si="32"/>
+        <v>7.5450699999999991</v>
+      </c>
+      <c r="AE29" s="13">
+        <f t="shared" si="32"/>
+        <v>7.8371699999999986</v>
+      </c>
+      <c r="AF29" s="13">
+        <f t="shared" si="32"/>
+        <v>8.1114899999999981</v>
+      </c>
+      <c r="AG29" s="13">
+        <f t="shared" si="32"/>
+        <v>8.3858099999999993</v>
+      </c>
+      <c r="AH29" s="13">
+        <f t="shared" si="32"/>
+        <v>8.6779099999999971</v>
+      </c>
+      <c r="AI29" s="13">
+        <f t="shared" si="32"/>
+        <v>8.9700099999999985</v>
+      </c>
+      <c r="AJ29" s="13">
+        <f t="shared" si="32"/>
+        <v>9.2443299999999979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="15">
+        <f>D22</f>
+        <v>-263.96134010000003</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30:AJ30" si="33">E22</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="33"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="G25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" si="19"/>
+      <c r="G30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="33"/>
         <v>-98.662088400000002</v>
       </c>
-      <c r="I25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="16">
-        <f t="shared" si="19"/>
+      <c r="I30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="33"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="K25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="16">
-        <f t="shared" si="19"/>
+      <c r="K30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="33"/>
         <v>-98.662088400000002</v>
       </c>
-      <c r="M25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="16">
-        <f t="shared" si="19"/>
+      <c r="M30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <f t="shared" si="33"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="O25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="16">
-        <f t="shared" si="19"/>
+      <c r="O30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
+        <f t="shared" si="33"/>
         <v>-381.40917494000001</v>
       </c>
-      <c r="Q25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="16">
-        <f t="shared" si="19"/>
+      <c r="Q30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="15">
+        <f t="shared" si="33"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="S25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="16">
-        <f t="shared" si="19"/>
+      <c r="S30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="33"/>
         <v>-1832.8051390000001</v>
       </c>
-      <c r="U25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="16">
-        <f t="shared" si="19"/>
+      <c r="U30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="33"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="W25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="16">
-        <f t="shared" si="19"/>
+      <c r="W30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="15">
+        <f t="shared" si="33"/>
         <v>-381.40917494000001</v>
       </c>
-      <c r="Y25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="16">
-        <f t="shared" si="19"/>
+      <c r="Y30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="15">
+        <f t="shared" si="33"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="AA25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="16">
-        <f t="shared" si="19"/>
+      <c r="AA30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="15">
+        <f t="shared" si="33"/>
         <v>-98.662088400000002</v>
       </c>
-      <c r="AC25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="16">
-        <f t="shared" si="19"/>
+      <c r="AC30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="15">
+        <f t="shared" si="33"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="AE25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="16">
-        <f t="shared" si="19"/>
+      <c r="AE30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="15">
+        <f t="shared" si="33"/>
         <v>-98.662088400000002</v>
       </c>
-      <c r="AG25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="16">
-        <f t="shared" si="19"/>
+      <c r="AG30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="15">
+        <f t="shared" si="33"/>
         <v>-220.52085815999999</v>
       </c>
-      <c r="AI25" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="16">
-        <f t="shared" si="19"/>
+      <c r="AI30" s="15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="15">
+        <f t="shared" si="33"/>
         <v>-263.96134010000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="C26" s="14"/>
+      <c r="AL30" s="15">
+        <f t="shared" ref="AL30:AL31" si="34">SUM(D30:AJ30)</f>
+        <v>-5282.3613879600007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="15">
+        <f>D22*D29</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <f>E22*E29</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <f>F22*F29</f>
+        <v>-124.90742447898718</v>
+      </c>
+      <c r="G31" s="15">
+        <f>G22*G29</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <f>H22*H29</f>
+        <v>-111.76836022305595</v>
+      </c>
+      <c r="I31" s="15">
+        <f>I22*I29</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <f>J22*J29</f>
+        <v>-374.72227343696142</v>
+      </c>
+      <c r="K31" s="15">
+        <f>K22*K29</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <f>L22*L29</f>
+        <v>-223.53672044611193</v>
+      </c>
+      <c r="M31" s="15">
+        <f>M22*M29</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <f>N22*N29</f>
+        <v>-624.53712239493575</v>
+      </c>
+      <c r="O31" s="15">
+        <f>O22*O29</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="15">
+        <f>P22*P29</f>
+        <v>-1296.2267092170885</v>
+      </c>
+      <c r="Q31" s="15">
+        <f>Q22*Q29</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="15">
+        <f>R22*R29</f>
+        <v>-874.35197135291014</v>
+      </c>
+      <c r="S31" s="15">
+        <f>S22*S29</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="15">
+        <f>T22*T29</f>
+        <v>-8471.5277653059329</v>
+      </c>
+      <c r="U31" s="15">
+        <f>U22*U29</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <f>V22*V29</f>
+        <v>-1164.2156133613223</v>
+      </c>
+      <c r="W31" s="15">
+        <f>W22*W29</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="15">
+        <f>X22*X29</f>
+        <v>-2229.6455689560007</v>
+      </c>
+      <c r="Y31" s="15">
+        <f>Y22*Y29</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="15">
+        <f>Z22*Z29</f>
+        <v>-1414.0304623192965</v>
+      </c>
+      <c r="AA31" s="15">
+        <f>AA22*AA29</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="15">
+        <f>AB22*AB29</f>
+        <v>-688.52818321265988</v>
+      </c>
+      <c r="AC31" s="15">
+        <f>AC22*AC29</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="15">
+        <f>AD22*AD29</f>
+        <v>-1663.8453112772709</v>
+      </c>
+      <c r="AE31" s="15">
+        <f>AE22*AE29</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="15">
+        <f>AF22*AF29</f>
+        <v>-800.29654343571588</v>
+      </c>
+      <c r="AG31" s="15">
+        <f>AG22*AG29</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="15">
+        <f>AH22*AH29</f>
+        <v>-1913.6601602352448</v>
+      </c>
+      <c r="AI31" s="15">
+        <f>AI22*AI29</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="15">
+        <f>AJ22*AJ29</f>
+        <v>-2440.1457351266326</v>
+      </c>
+      <c r="AL31" s="15">
+        <f t="shared" si="34"/>
+        <v>-24415.945924780128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="3" t="e">
+        <f>((1 + (-AJ29/(P29+X29)))^(-1))*((1/(P29+X29))*AL31 - (1/2)*AL30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="13">
+        <f>P29+X29</f>
+        <v>9.2443299999999979</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
